--- a/Testdata/TC_Unit Manipulation_15.xlsx
+++ b/Testdata/TC_Unit Manipulation_15.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>H1MAAB+LCAAAAAAAAAPtXFtv48YV/iuEH4oEqDykJF/kzDKQJdsRKkuGJWfXeVmMyZHNLkUqvNjWW/pQBEgvQNEkQHpFHooGAZruQ1psk6L9L0G8mz71L/TMDC9DilqL3i2aoAwWCOdc5nLmzDnfHO0Ofv16aiuX1PMt17m3pq2rawp1DNe0nPN7a2EwqWmba6/reO/aoPYR8ciUBiCsgJbj71z71r21iyCY7SB0dXW1ftVYd71zVFdVDT047I+MCzolNcvxA+IYdC3RMm/XWtNxx5we0oCYJCBC895ab9Rb71DL6ALtkDjknHrru6FvOdT395zACizqM02PkoB2uodvioXp9fXNdQ2jBXoquRtatinkMpKCHsnBsHRsTaleV+tqTavX1MZYU3eajZ36xvpWvfFWrJgI4j7xgxH1Li2DE0YBmc64ulZXG5rabNQ3MCoUgr5SA+h4aJvH9NLyqdmhtu2XsgiKNrBtBLDqcsZUMZJ0o47uPoUDj8wuxlZg07Lq+65HDTDUncYe0KuhF9lvPOsDd3xhecG8S+al+zrxqTecMWuUU9Vx13WCtk294GQGm0pN2HNg6IEXUoyWMFOlruUb8G05ITX1CbF9WSnDxPdd75E/IwYdwIFFrI8rx3aJCZ4VWH5gGemgCwx85Lkz6BEG33Vtcx96jYQLGEnPPQdMzIbddd1H6eyKmJj7APcG2NMpCWLxBToeXbhXQ8eej8Iz3/CsM2p2d2PpQh5mJy/S7oR+4E5hFikJC5pEmcN/cNLyZNylhjUl9pENRvT1BvSSIeB2GLgTK+i4djh1/HhOOSq+Dysa0+tkhUkbD2FzHWZ01+k5sbwwcyErq3DsXiVjLjK4ESRy2zfi7V5k5IW7QIu3b5HDd4Stct+yIRHIeyFRs14xuqA0KHQJwcEs5u2z1KLvztmYGKUUDJ4J3g1UnSWIGv8zVtUd/gdGTth4zzEjOY0H54YsFzPxIJwOz+AEX/I16RrwciQMq7B3beI8Aup9K7gYtOPZF3CwWPNS+UUehrM6s8mckxO7yDTccww7NKkIAT1nwp2SzU1s41I2XiD14VTrmDjz8XwGIde3dgL4uLcGSXjHDzxI82u64YZO4M1ZrMAoEr1Nxw/PHD4AsVfWmXj07RDQxXw/dIyOa64+mimsc+JYweozdENPBMDVVbj1WCwM/S5lUYWH+ZX1jTJr8r1S4lOHTl3HMla3NhiZzd68w0L8+FStrEHF+VpZ3oZMLhIdO+srq3kADSG1lRqm7fuuYXFnjY6HKemjJUemSycktAGWBZBUz5Nomyfjtv8oLyOT8IlnxzFPZ6DXB9RrmNN1A+ACQ3brhjtlBARg8/4II1meYR6D7jnnfeKch4AqkriSpycRl2XEsUccny0nARG54FsshOM4JcCNLoLXMOSOIIKXC1yMcnJ4TKcz1yP2IRjG2o/cLkJIAD4OSXARtSCb2dSIjYxS1UQrO7N44reJ8bQklsEOfBQmc0QuxNYi8HUqk9IwW+UhHEu7Q2zrzBNRNU7eRTzYsBQOxvGXLa4kNIz3AO5YkG9/QOcMeKeNiM5dVosZwoFZINVHx83t+oa6AZcJ3sZ8xQfuZaAA6qWACpWaMibXymtKzzGtS8sMiQ2f4HywMmGeKAWV0pR18H4c3/kU2jDPLCUrAMji3IL0sSiYcFIF/ZQSz55LgmKJfdcAuafv//Pmi988ff+vNz/+Q+3ZJz+/ee/jf//9V18/+fTrL74QVLFGIY3H5MymfEbj3e1ttdEEB0tImFkVcRRshkbAaaenHPwmbRxd1nijs9frHPR3eSBJiLG6yCWI3QPnbpg2R2IVfCC+lyh2ASGij+PAFLUzXCk36exedkmz0jJ/maKwxbMv//jsyz8t1Y4MloIsrdXa5hff2zGYtiCXYLB+Jvgz4WZN3ajV65JwTgYfi8if2Kln6nB/bqnalqolQdxMvLhIKM+KehqTc5TTE6SOwEWJC8jtmMk9f0z9IGGLsyA1Ih/9y0+++fMHGanIuhEl2wtMjuMXNhiKG7zrwfFYGQ1Pjjt7ynhvxPwk5UlyovPnCEejJwcq41SOA6f8+wpkdchiyhpcftYUd6JQYlwocziK0kHMOFsRVQx0xy7zszzw3HAmdkRSSKkFkkk4KdQoCDacx+25EHVSVoG4mOvN3z4vUogW0k2RrH58uKtMncQvOQ1nOIIk8aNT+9E/vn7yLgtuj39x8+RHmR6icZIKAPg5nCa5mbg9hLwo0eQo+P6IG/OR+lBKLBGR3aCOXMsJfF1r8stT1MKgqrHe+P9xbwq5jnfM7QX0HAW/Qfy96yA62PoAoywB5jkjkGbd9JqZEEQMT+36r9/+7umvP3/64eNv3v305r1Pbn764bMvf//NZx+LU/f0g8dPf/ZZFOXziYDPhV1eBfpTeCnEUNhpVFjSVr5655eK4wYKYA0l5BHpq3c+kjpjE+WoJO0ZsFwykewUFkRlZaanSFNJ5pDRS1RE5u+wFNZIJKIk5s4sIx3krRrrip07znilN66FPlVcgFGvwkqywqnyqnqRikipR1tqXatHXDEbtoQz4kumP7DdM4ARMYPXGnIiGa3nK6SyfLyD/nC33U9FxCSGnkk95obiA/f8GE3G7iVRgAsozwhtVhJaEFtk4fhLCl0oqq1M2iYLebpaVL/ISOBO6HkCBTlRTX4UzgD5xhW45XxelZTA7kAAUxn+pu1eN8uHtsSF5JdlMwLn83AUsURo6vmsjCOw64CZJm0CL1PJBHNEZXeBrgBJUg+xWLPnea5XGHBSTix2CLAZoghKLZ7IIDakgNhmulcxIQ5yFdSuoPZ3BWq3VoTa9QpqV1C7gtrffqitLYfa2sPtTbK5STbqtebEMGrNzW2jdra5RWum0domjeYm1c4m/wMUHu9awa8NS+ewenq6iwM8zycL9vRlVy9eOHk/P6reEu1uv7yh5+xYdaWqrlQv+0qlJVeqGJL7ouif+ykAgpGp99sHEIIYeJByGRBf0V5lP65I+S3920ait6Qd4fAZeLdrxiD8TWKHHK+LDw4t9c5wMBq3B5CLo996cv0geQwBDvMQX6Imy0vDTduzggvowDKGMB3uYT7EpQW5RJVdpVIlpUiL37byl9XojLtCgd718oIElEeZIIZy8TrfjsOJTEfSnQBJMB8VgXqUQfHohRE7Woq0l3PimabRvvA6XpAMCuWW4etC4dvxdR4Uc8rqkBllsgZahMQpCS1Fu2gB0qJikLmEvKCSuH8hscirkoxfSIwHkBAYEgkfLQI39HJKoEgGOeoL4azVUy+SCGgxFWZJKJO7UD5PyQQkJRVUkEJyNJTNASiKSui7VjqLxv42187QXapl6OUVxaTE0rUmk1PAZQ/Sv5kUE8SM015YQ+TUhUyPJCgg+Ub015derrMk8KGIV5Vgy5ZgV7+IVtXZqjpbVWer6mxVna2qsy9cnb0wl1VnGWdJdbZAsXxRtr68KFt/SLcnZOuM0NrEaGi1ptpq1FqN5natPlHJhqm1Ns1mqyrKVkXZqihbFWW/TUXZelWUrYqyVVG2KspWRdmqKFsVZaui7HPS/8mgN3542B70jk767XFvOFgEA0LkpD/uHfV7e8evvBE6pkfN1xSxcYFCbFuZsn//NbMtMFFZ3AAR/pwGh0kHWQTxRrcchCgagcxmNo9EywYZH5/sVUilQioVUqmQSoVUKqRSIZX/q5+Ple+dB68pd8A51a/OL+NX59Ur7f+VX52jD/H0Q+zUXWoDuCv7PFSsfehe3lkX3KKsas8f2mZk53JvDyRmSTuQH+tiPlR2Mm3PA7TBXvcp/bpW33Ie9cqtXm9sE0KbGrhLfWtLm8D3BuQddbM5oVutjS2AULxTdjFgXUwBE7KHHMoNorFYJaunj24cE+e8ZG/CwFyRPUwBluJnNSqCJ228b3l+8IABguhLUE4TyqkAkQ/YG1Xig7dP9Ub0sBwIIHkwlJl1HHoC8a6ba/etqVXy8Qo1jk/ZTsANZjOBCctuaKd7OKDXAUZSD4Afzn4IUEW89lKmN3Gq4DKU6Md9jcKz0t2hWPkI+Myx7qa9ZwLUvLs2fyXNsl9gAhxg3rWLnuNb5xdB2X0lpE5Vsj2pbarGdq1pbLVqpFU3ai3DbG03NiHcTwh73irqHBKHRa9KDsLSjeWHxC6vh3LPXOr/AdbArWsfUwAA</t>
+          <t>8lMAAB+LCAAAAAAAAAPtXFlz2zgS/issP2xlHmSQkmwpHoRTOuxEszpcljxJ9iUFkaCENUVqecTRv98GwAOkqET0eGaPYeKqEH3gaDS6PzQd4l++7VztKw1C5nvvLoxL/UKjnuXbzNu8u4gjp2VcX/xi4ttvFnXvSUB2NAJhDbS88OZbyN5dbKNof4PQ8/Pz5XPn0g82qK3rBvo0my6tLd2RFvPCiHgWvci07B9rXZh4ZO9mNCI2iYjUfHcxWU4uR5RZY6DNiEc2NLgcxiHzaBjeehGLGA25ZkBJREfj2W9yYWb78vrSwOiInksOY+baUq4gKemJHAxLV2xHzbbe1lt6r2V0VoZ+0+3d6L3L/tv+P1LFTBBPSRgtafCVWYKwjMhuL9T1ntEx9G5P72FUKQR95QYw8cK1H+hXFlJ7RF03rGURlGzgwIpg1fWMqWOk6CYdvXwK7wOy365Y5NK66nd+QC0w1IvGntPnRZDYb7WfAne1ZUF0GJND7b4eQxos9twa9VRNPPa9aODSIHrcw6ZSG/YcGGYUxBSjE8xcacxCC56ZF1PbdIgbqkoFJv7oB0/hnlh0DgcW8T6ePdcnNnhWxMKIWfmgRwx8H/h76BEGH/qufQe9JsIVjKzniQcm5sMOff8pn10VEwsfEN4Ae7ojUSp+RMfLrf+88NzDMl6HVsDW1B4PU+lKHuYnL9EexWHk72AWOQlLmkKZzdAB/sBhK3PwmFpsR9x7F+wYmh3oqEDAgzjyHRaNfDfeeWE6rRIVf4RFrei3bJFZGy9gfz1ud9+beKm8tHQlq6jw4D9nYx4zhB0U8iC00h0/ZpSFx0BLd/CYIzaFr/KOuZAL1O1QqEXHWG4pjSq9QnIwD3t3PLuYwwMfE6OcgsE5wcGBavIc0RI/K12/ET8wcsbGt56dyBl6y2i3OqpcysTzeLdYwyH+KtZkGsArkTCswh26xHsC6kcWbeeDdPYVHCzXfFL+mIfhuO5dchDkzC4qDU88y41tKqPAxHOEU/K5yW08ycZHpCkcbBMT77A67CHqhuwmgod3F5CHb8IogEx/YVp+7EXBgYcLjBLRH+mE8doTAxD3bB0noP+KAWAc7mLPGvn2+aPZ0jqPHovOn6EfBzIGnq8irMfDYRyOKQ8sItKfrW/VWVMY1BLfeXTne8w639pgZD57+wULCdNTdbYGlefrbHkXkrnMdfysn60WADqE7FZrmEEY+hYTzpocD1vRRyeOzJg6JHYBmUWQVzdZtC2T8SB8KsuoJPwYuGnMMznuDQH4Wvbu0gLEwMHdpeXvOAEB3vy4xEiV57DHorfeZkq8TQzAIosrZXoWcXlSXAXEC/lyMhxRCr7VQjiNUxLfmDJ4LWLhCDJ4+cDFqCSHV3S39wPizsAw7C5xuwQkAf6YkWibtCCbudRKjYxy1UyrOLN04j8SE2lJLoMf+CRMlohCiK9FQuxcJqdhvsoZHEt3RFy2DmRUTZN3FQ82LEeEafzli6uJDtM9gGsW5Nu/0wPH3nkjoQuXNVKGdGAeSM3lQ7ff63c7bcAyvI3Fit+MRz8BbrNjYbQbbcog/jqM2tocQhzYU3tPwhttNhuuHiENCiMliegF+qomvktjvZjODFy2QCjyAWRsGGSSI7mMkcubM4CeW/egSMrVTn0LBN/AyfP32gNzWSjn/gSBgc9TG7hkp40ICworlmp4RdYuFVNbDfv9/lu4mOUkzC2NBDjmthC0yXguQHFGwMklTjRGt5PR/cNMRJeMmOrLBIP4/fDgx3lzKdcjRhIbjFK/kCLmKI1WSbvAVRKWqV4Iijqq1Cl1aRLFkCe7SIxXwGjXZ2K0NsdoeiVGmxaSQ3Lhhk7fKsIlGfwgM0Nmsglc6K+6Rruj6+0syNuZf1cJlVlJTyuyQSU9SRpJ3JS4Az95eTtlitMw8WwfzjsjmYw8JEpDWrJaMLFyQqkQgpkKsMNHRmlDDDFmcG+OIHRGVHtPPcrPrO9oC+ZqxLP5sQDb5OKKqhyU6z8Jfe1XSPFCf8a8A3nSbOKJYzWMd0ztJJltdjpVjzs+uwV/rKLK7r6rWB7xfeDH+6O4k1MrJCsj0DG3pClsdjy1nFchLyc7jCGHEq9KKVnNOIe85myuQbzSom3mo4KMy0xJVURkX7/GEREyD2wdF7pIxsoqBuD0cLTUZnYGIBYmWalEwR+XwqpP+hclCyVEft2695kXhWa/K25aSQuDqsF7E//iyQ4So+hY2A3oJQr+QMLbb1Fyyk2IvUUCzHNPwE39/E6aEWRwz20LTepqk/Hlw3CoG90b7USe0ArJJEkI5ZwhZieejnr8XtbU3qgxWu2cL0Vo5iOl89Nu4QRv+GkrS6g6ppA6KHMoKGSyEjiMINv1e5lEku/8PbPy3pciBmSjl7i5dDryUsQcRTCRkfn1vn/9tmMkXDkeB0drEtKKSAjLoDsW77RURtQlStKFDs7WzdVkCJ+PF/Pb5WSQS8nZLQIIfNwn5QOehCkOTX1NoQAX8KEF5zuix2LHLJw+KQENJVUZZ2DzWrypV1U+ChJ4FAeBRE1eUtBfxnvAzFnh5bSAqGkqOHkuMa2KnPP2ZFzkQ1vhQl4ssjlB8EVoSlgyTE1CXgGSsHfObZM3gVeog4I9kqK9BGFfGewD4pHnNgj8oDL85JxUbAaIG2IKyk2eySA+pETndr5ZKSENeQ1Kb1D6/xFKb5+D0jtHcadB6Q1Kb1D6fzdKN06jdOOLc22339rOVeuqd91rdXu23lobTrvVtRxH7xlU17ud/wCAT7ev4q3GyTmcnb9e5Ajfc87qTX3tQsgrpfnvx9pzYuCPb4HoO/vX3M2au9kfejczsrtZCu1D+d6h9DYC4pRtTgfvITpxkKFkNSC+MX7i73eUTJf/zpPsLWsneH4Pru7bKZj/jbixwP3yQcBRc7SYL1eD+QpMKl83lfpB6hgST5avCgo1W14eiQYBi7bQAbMWMB1x4AAtHMtlqvxKlitpVVri1la+9SYH3pcK9KWXICTvAagQ3FAplJfbaWxR6Ui5UCDlaoCqLgKoAPzR7wb56CQsP81JZ5pngcp7fUWSqJQ7hcMrhX+Mw8vgWVDOh9aokEfQMWrOSegkEEZH0BZVw80T5COVzP0riVVelYGBSmI6gALOkMQC6BjRodcprCIV/+i/C4Kdn4eRQkDHWa9IQoW0hcopSiUgJdugitxSoqFiGkBJVEJNDe7Va3DoJVU39HrFNSWxjJnjfAb4+Cn/5aiUIGec98IbMqceZXqkQAHFN5LfoHpdZ8ngQxXvr+VHr1LLPf+S2pR5mzJvU+ZtyrxNmbcp8/45ZV5e8dvaVTXelPMnFHjbpwu87S+ORdvdbqfXWne6163uNem1SMfpt4jldLuGfv3W6a6bAm9T4G0KvE2B93+kwNtuCrxNgbcp8DYF3qbA2xR4mwJvU+D9Tvp/nE9WX2aD+eT+cTpYTRbzYzAgRR6nq8n9dHL78OZD7NkBtX/W5MZFGnFdbcf/O9veZWCiurgBIvyGRrOsgyKC+DCuByGqRiD7vSsi0alBVg+Ptw1SaZBKg1QapNIglQapNEjlL/UqWvvbJvpZewHOad5gv8ob7POr8H/IG+zkQX7KIvXqMXUB3dX94lWqPfO/vlgX/KKu6iRcuHZi53rfUsjMknegfn+M+1DdyQyCAOAG/1pR7Q+GTZn3NKm3erNrXF11aNvQr64cStuE2m1nfW3oxrXhwF/AUKJTfjPgXewAFPIPU9QbxODBSlXPPyLyQLxNzd6kgYUi/9AGWEq+8gQl/pGNtI3vWBBGnzgiSJ4k5XNG+SxR5Cf+zS35INqfzf6VJIAAUgdDhVmnsSeSn6rz3SnbsZof49DT+FTsBNxgv5egsO6GjsazOf0WYaT0AABi/U/AKvLrNXV6k6cKbkOZftrXMl7X7g6lyvfA5471Mu1bG7Dmy7XFh9+Y+zsmIBDmS7uYeCHbbKPaB9Vx7Ksr3YbIbjitbr9jt/qdng4h37rq9K6ovbYJ/1xX0jkkDkafaw7C0w0LY+LW10OlL3ea/wZDEQU08lMAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +64,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,19 +114,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -404,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,44 +444,44 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -465,133 +491,133 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>RMB hd</t>
+          <t>BTU hd</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="D8" s="3">
-        <v>310901701</v>
+      <c r="B8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="D8" s="5">
+        <v>254123002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -601,7 +627,7 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -619,371 +645,1067 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36495</v>
-      </c>
-      <c r="D12" s="4">
-        <v>36495</v>
+      <c r="B12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="C12" s="6">
+        <v>38749</v>
+      </c>
+      <c r="D12" s="6">
+        <v>38749</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="6">
         <v>41244</v>
       </c>
-      <c r="D13" s="4">
-        <v>41244</v>
+      <c r="C13" s="6">
+        <v>41275</v>
+      </c>
+      <c r="D13" s="6">
+        <v>41275</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="D14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="D14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>93374.63980350002</v>
       </c>
       <c r="C17" s="2">
-        <v>1086.515</v>
+        <v>93103.80303101697</v>
       </c>
       <c r="D17" s="2">
-        <v>10865150</v>
+        <v>931038030310.1694</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>67588679.72409233</v>
       </c>
       <c r="C18" s="2">
-        <v>150826.0242277778</v>
+        <v>64276966.39270106</v>
       </c>
       <c r="D18" s="2">
-        <v>15082602422777.78</v>
+        <v>6.427696639270106e+21</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>8221.233467314521</v>
       </c>
       <c r="C19" s="2">
-        <v>388.3632632314465</v>
+        <v>8017.291711837674</v>
       </c>
       <c r="D19" s="2">
-        <v>3883632.632314465</v>
+        <v>80172917118.37674</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761636</v>
       </c>
       <c r="C20" s="2">
-        <v>0.2953613707677538</v>
+        <v>0.5987647606024136</v>
       </c>
       <c r="D20" s="2">
-        <v>0.2953613707677528</v>
+        <v>0.5987647606024241</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600841</v>
       </c>
       <c r="C21" s="2">
-        <v>-1.533971116454881</v>
+        <v>-0.153014090572662</v>
       </c>
       <c r="D21" s="2">
-        <v>-1.533971116454881</v>
+        <v>-0.1530140905726531</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3574393940547959</v>
+        <v>0.08611132360690746</v>
       </c>
       <c r="D22" s="2">
-        <v>0.3574393940547958</v>
+        <v>0.08611132360690749</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>572.71</v>
+        <v>80465.44901</v>
       </c>
       <c r="D23" s="2">
-        <v>5727100</v>
+        <v>804654490100</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>112482.41951</v>
       </c>
       <c r="C24" s="2">
-        <v>1639.54</v>
+        <v>112482.41951</v>
       </c>
       <c r="D24" s="2">
-        <v>16395400</v>
+        <v>1124824195100</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>92555.497445</v>
       </c>
       <c r="C25" s="2">
-        <v>1024.7</v>
+        <v>92075.12437000001</v>
       </c>
       <c r="D25" s="2">
-        <v>10247000</v>
+        <v>920751243700</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
-        <v>37226</v>
-      </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>572.71</v>
-      </c>
-      <c r="D27" s="8">
-        <v>5727100</v>
-      </c>
+      <c r="A27" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B27" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28">
-      <c r="A28" s="7">
-        <v>37591</v>
-      </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="D28" s="8">
-        <v>7910200</v>
+      <c r="A28" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B28" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C28" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1025846417000</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
-        <v>37956</v>
-      </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="D29" s="8">
-        <v>7677300</v>
+      <c r="A29" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B29" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C29" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="D29" s="11">
+        <v>934675494400</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <v>38322</v>
-      </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="D30" s="8">
-        <v>7276300</v>
+      <c r="A30" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B30" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C30" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="D30" s="11">
+        <v>986070121200</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
-        <v>38687</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="D31" s="8">
-        <v>9229100</v>
+      <c r="A31" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B31" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="D31" s="11">
+        <v>973956436700</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B32" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C32" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="D32" s="11">
+        <v>920751243700</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B33" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="C33" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="D33" s="11">
+        <v>952322381900</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B34" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C34" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1000477073000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B35" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C35" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="D35" s="11">
+        <v>953072401100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B36" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C36" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="D36" s="11">
+        <v>899178379800</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B37" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C37" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="D37" s="11">
+        <v>983958323200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="D32" s="8">
-        <v>11264900</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B38" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C38" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="D38" s="11">
+        <v>981701342800</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C39" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="D39" s="11">
+        <v>985689482600</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="D40" s="11">
+        <v>955242498000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B41" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C41" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="D41" s="11">
+        <v>836170226800</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B42" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C42" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="D42" s="11">
+        <v>986070121200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C43" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="D43" s="11">
+        <v>873135929200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C44" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="D44" s="11">
+        <v>890921227800</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B45" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C45" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="D45" s="11">
+        <v>835804962000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C46" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="D46" s="11">
+        <v>890628271900</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B47" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C47" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="D47" s="11">
+        <v>931599971000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B48" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C48" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="D48" s="11">
+        <v>865890822400</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B49" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C49" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="D49" s="11">
+        <v>930358705200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="D33" s="8">
-        <v>12358000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B50" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C50" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="D50" s="11">
+        <v>913561508400</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B51" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C51" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="D51" s="11">
+        <v>956887379700</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C52" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="D52" s="11">
+        <v>963289469000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B53" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C53" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="D53" s="11">
+        <v>989537530300</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B54" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C54" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="D54" s="11">
+        <v>900977722200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B55" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="C55" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="D55" s="11">
+        <v>821558079400</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C56" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="D56" s="11">
+        <v>906122142800</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B57" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="C57" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="D57" s="11">
+        <v>834686995600</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B58" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C58" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="D58" s="11">
+        <v>858804652700</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B59" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C59" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="D59" s="11">
+        <v>880719520600</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C60" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="D60" s="11">
+        <v>864116581000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C61" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="D61" s="11">
+        <v>858634635700</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="D34" s="8">
-        <v>14827100</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B62" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C62" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="D62" s="11">
+        <v>879111560200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B63" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C63" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="D63" s="11">
+        <v>917899082200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B64" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C64" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="D64" s="11">
+        <v>920303717800</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B65" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C65" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="D65" s="11">
+        <v>804654490100</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B66" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="C66" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="D66" s="11">
+        <v>815585178800</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B67" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C67" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="D67" s="11">
+        <v>816574611900</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B68" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C68" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="D68" s="11">
+        <v>833087852900</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B69" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C69" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="D69" s="11">
+        <v>848394901900</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B70" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C70" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="D70" s="11">
+        <v>904136671200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B71" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C71" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="D71" s="11">
+        <v>859455674300</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B72" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C72" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="D72" s="11">
+        <v>846724391300</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B73" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C73" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="D73" s="11">
+        <v>853705440100</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="D35" s="8">
-        <v>15986100</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B74" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C74" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="D74" s="11">
+        <v>865784388000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C75" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="D75" s="11">
+        <v>971566566700</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B76" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C76" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="D76" s="11">
+        <v>972891083800</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B77" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C77" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="D77" s="11">
+        <v>946714368000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="D78" s="11">
+        <v>1104032431400</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B79" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C79" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="D79" s="11">
+        <v>996406686500</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C80" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="D80" s="11">
+        <v>1100558161000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B81" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C81" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="D81" s="11">
+        <v>949300296800</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B82" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C82" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="D82" s="11">
+        <v>1110791593300</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B83" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C83" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="D83" s="11">
+        <v>1124824195100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B84" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C84" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="D84" s="11">
+        <v>1055031781100</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B85" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C85" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="D85" s="11">
+        <v>1077650252900</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="D36" s="8">
-        <v>16395400</v>
+      <c r="B86" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C86" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="D86" s="11">
+        <v>1013640360700</v>
       </c>
     </row>
   </sheetData>
@@ -1003,34 +1725,34 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>1</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>4</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>4</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>2</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -1040,7 +1762,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA346EF4-8160-4295-AABE-571E5D83C1DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECBF8827-B73F-436B-82D2-D414452C017A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
